--- a/NLP_FORCE/NaturaLP_ANSWER.xlsx
+++ b/NLP_FORCE/NaturaLP_ANSWER.xlsx
@@ -8,24 +8,42 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="1" r:id="rId1"/>
-    <sheet name="Спорт" sheetId="2" r:id="rId2"/>
-    <sheet name="Технологии" sheetId="3" r:id="rId3"/>
-    <sheet name="Финансы" sheetId="4" r:id="rId4"/>
-    <sheet name="Политика" sheetId="5" r:id="rId5"/>
-    <sheet name="Шоубизнес" sheetId="6" r:id="rId6"/>
-    <sheet name="Мода" sheetId="7" r:id="rId7"/>
-    <sheet name="Криптовалюта" sheetId="8" r:id="rId8"/>
+    <sheet name="Блоги" sheetId="2" r:id="rId2"/>
+    <sheet name="Новости и СМИ" sheetId="3" r:id="rId3"/>
+    <sheet name="Развлечения и юмор" sheetId="4" r:id="rId4"/>
+    <sheet name="Технологии" sheetId="5" r:id="rId5"/>
+    <sheet name="Экономика" sheetId="6" r:id="rId6"/>
+    <sheet name="Бизнес и стартапы" sheetId="7" r:id="rId7"/>
+    <sheet name="Криптовалюты" sheetId="8" r:id="rId8"/>
     <sheet name="Путешествия" sheetId="9" r:id="rId9"/>
-    <sheet name="Образование" sheetId="10" r:id="rId10"/>
-    <sheet name="Развлечения" sheetId="11" r:id="rId11"/>
-    <sheet name="Общее" sheetId="12" r:id="rId12"/>
+    <sheet name="Маркетинг, PR, реклама" sheetId="10" r:id="rId10"/>
+    <sheet name="Психология" sheetId="11" r:id="rId11"/>
+    <sheet name="Дизайн" sheetId="12" r:id="rId12"/>
+    <sheet name="Политика" sheetId="13" r:id="rId13"/>
+    <sheet name="Искусство" sheetId="14" r:id="rId14"/>
+    <sheet name="Право" sheetId="15" r:id="rId15"/>
+    <sheet name="Образование и познавательное" sheetId="16" r:id="rId16"/>
+    <sheet name="Спорт" sheetId="17" r:id="rId17"/>
+    <sheet name="Мода и красота" sheetId="18" r:id="rId18"/>
+    <sheet name="Здоровье и медицина" sheetId="19" r:id="rId19"/>
+    <sheet name="Картинки и фото" sheetId="20" r:id="rId20"/>
+    <sheet name="Софт и приложения" sheetId="21" r:id="rId21"/>
+    <sheet name="Видео и фильмы" sheetId="22" r:id="rId22"/>
+    <sheet name="Музыка" sheetId="23" r:id="rId23"/>
+    <sheet name="Игры" sheetId="24" r:id="rId24"/>
+    <sheet name="Еда и кулинария" sheetId="25" r:id="rId25"/>
+    <sheet name="Цитаты" sheetId="26" r:id="rId26"/>
+    <sheet name="Рукоделие" sheetId="27" r:id="rId27"/>
+    <sheet name="Финансы" sheetId="28" r:id="rId28"/>
+    <sheet name="Шоубиз" sheetId="29" r:id="rId29"/>
+    <sheet name="Другое" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Название категории</t>
   </si>
@@ -36,37 +54,91 @@
     <t>Количество без дубликтов</t>
   </si>
   <si>
+    <t>Блоги</t>
+  </si>
+  <si>
+    <t>Новости и СМИ</t>
+  </si>
+  <si>
+    <t>Развлечения и юмор</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Бизнес и стартапы</t>
+  </si>
+  <si>
+    <t>Криптовалюты</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>Маркетинг, PR, реклама</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Политика</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Образование и познавательное</t>
+  </si>
+  <si>
     <t>Спорт</t>
   </si>
   <si>
-    <t>Технологии</t>
+    <t>Мода и красота</t>
+  </si>
+  <si>
+    <t>Здоровье и медицина</t>
+  </si>
+  <si>
+    <t>Картинки и фото</t>
+  </si>
+  <si>
+    <t>Софт и приложения</t>
+  </si>
+  <si>
+    <t>Видео и фильмы</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
+    <t>Еда и кулинария</t>
+  </si>
+  <si>
+    <t>Цитаты</t>
+  </si>
+  <si>
+    <t>Рукоделие</t>
   </si>
   <si>
     <t>Финансы</t>
   </si>
   <si>
-    <t>Политика</t>
-  </si>
-  <si>
-    <t>Шоубизнес</t>
-  </si>
-  <si>
-    <t>Мода</t>
-  </si>
-  <si>
-    <t>Криптовалюта</t>
-  </si>
-  <si>
-    <t>Путешествия</t>
-  </si>
-  <si>
-    <t>Образование</t>
-  </si>
-  <si>
-    <t>Развлечения</t>
-  </si>
-  <si>
-    <t>Общее</t>
+    <t>Шоубиз</t>
+  </si>
+  <si>
+    <t>Другое</t>
   </si>
   <si>
     <t>ID канала</t>
@@ -75,25 +147,424 @@
     <t>Сообщения без дубликтов</t>
   </si>
   <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
-    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
-  </si>
-  <si>
-    <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
-  </si>
-  <si>
-    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
-  </si>
-  <si>
-    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
-  </si>
-  <si>
-    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Блогер-гурман поделился рецептом приготовления необычного блюда из местных продуктов.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
   </si>
 </sst>
 </file>
@@ -172,14 +643,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>345948</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>138684</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>140208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -196,8 +667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="4000500"/>
-          <a:ext cx="4613148" cy="3758184"/>
+          <a:off x="7362825" y="9715500"/>
+          <a:ext cx="9258300" cy="6236208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,10 +685,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>608076</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138684</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>140208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -235,7 +706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7362825" y="190500"/>
-          <a:ext cx="4265676" cy="3758184"/>
+          <a:ext cx="9258300" cy="6236208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -532,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -574,10 +1045,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -588,10 +1059,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -602,10 +1073,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -616,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -630,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -644,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -658,10 +1129,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -672,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -686,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -700,10 +1171,262 @@
         <v>13</v>
       </c>
       <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -714,21 +1437,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -736,10 +1460,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -749,21 +1495,55 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -773,21 +1553,22 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -795,10 +1576,680 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>124</v>
+      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -808,21 +2259,739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -830,10 +2999,82 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -843,21 +3084,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -867,21 +3244,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -891,21 +3302,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -915,21 +3371,154 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -945,15 +3534,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -961,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -972,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -983,10 +3573,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -996,32 +3586,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2222312</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1031,21 +3611,88 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
